--- a/biology/Botanique/Flore_fossile/Flore_fossile.xlsx
+++ b/biology/Botanique/Flore_fossile/Flore_fossile.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une flore fossile est un ensemble d'espèces végétales qui se sont développées à une certaine période géologique dans le passé sur une zone spécifique. Elles sont mises au jour sur la base de recherches paléobotaniques, par exemple grâce à des restes de plantes comme les fossiles.
 </t>
@@ -511,9 +523,11 @@
           <t>Intérêt scientifique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'étude d'une flore fossile renseigne à la fois l'histoire évolutive des végétaux ainsi que celle du climat de la zone étudiée[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'étude d'une flore fossile renseigne à la fois l'histoire évolutive des végétaux ainsi que celle du climat de la zone étudiée.
 </t>
         </is>
       </c>
@@ -544,10 +558,50 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">En France métropolitaine
-Les principaux gisements de flore fossile se localisent dans le sud-est de la France, dans le bassin minier au nord[2],[3] et dans le bassin de la Loire[4].
-Hors de France
-L'étude de la flore fossile de plusieurs mines par Hanna Czeczott. La flore fossile du district de Kızılcahamam.
+          <t>En France métropolitaine</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les principaux gisements de flore fossile se localisent dans le sud-est de la France, dans le bassin minier au nord, et dans le bassin de la Loire.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Flore_fossile</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Flore_fossile</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Localisation</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Hors de France</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'étude de la flore fossile de plusieurs mines par Hanna Czeczott. La flore fossile du district de Kızılcahamam.
 </t>
         </is>
       </c>
